--- a/SchedulingData/dynamic13/pso/scheduling1_14.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_14.xlsx
@@ -462,154 +462,154 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>71.66</v>
+        <v>42.2</v>
       </c>
       <c r="E2" t="n">
-        <v>26.024</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>42.2</v>
       </c>
       <c r="D3" t="n">
-        <v>78.36</v>
+        <v>96.8</v>
       </c>
       <c r="E3" t="n">
-        <v>26.304</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>70.3</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>27.14</v>
+        <v>26.524</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>96.8</v>
       </c>
       <c r="D5" t="n">
-        <v>55.78</v>
+        <v>136.9</v>
       </c>
       <c r="E5" t="n">
-        <v>26.592</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>71.66</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>129.1</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>22.9</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>42.2</v>
+        <v>118.46</v>
       </c>
       <c r="E7" t="n">
-        <v>26.48</v>
+        <v>22.924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>70.3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>137.98</v>
+        <v>67.94</v>
       </c>
       <c r="E8" t="n">
-        <v>23.972</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>89.90000000000001</v>
+        <v>57.16</v>
       </c>
       <c r="E9" t="n">
-        <v>25.14</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>55.78</v>
+        <v>118.46</v>
       </c>
       <c r="D10" t="n">
-        <v>115.28</v>
+        <v>160.22</v>
       </c>
       <c r="E10" t="n">
-        <v>22.752</v>
+        <v>19.388</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>89.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>151.5</v>
+        <v>41.02</v>
       </c>
       <c r="E11" t="n">
-        <v>21.6</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>42.2</v>
+        <v>57.16</v>
       </c>
       <c r="D12" t="n">
-        <v>105.12</v>
+        <v>112.54</v>
       </c>
       <c r="E12" t="n">
-        <v>22.788</v>
+        <v>23.056</v>
       </c>
     </row>
     <row r="13">
@@ -675,226 +675,226 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>129.1</v>
+        <v>41.02</v>
       </c>
       <c r="D13" t="n">
-        <v>182.36</v>
+        <v>111.86</v>
       </c>
       <c r="E13" t="n">
-        <v>19.204</v>
+        <v>24.124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>182.36</v>
+        <v>160.22</v>
       </c>
       <c r="D14" t="n">
-        <v>239.46</v>
+        <v>209.92</v>
       </c>
       <c r="E14" t="n">
-        <v>15.604</v>
+        <v>15.548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>151.5</v>
+        <v>111.86</v>
       </c>
       <c r="D15" t="n">
-        <v>190.96</v>
+        <v>160.12</v>
       </c>
       <c r="E15" t="n">
-        <v>18.784</v>
+        <v>20.428</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>239.46</v>
+        <v>112.54</v>
       </c>
       <c r="D16" t="n">
-        <v>311.16</v>
+        <v>167.24</v>
       </c>
       <c r="E16" t="n">
-        <v>11.524</v>
+        <v>19.696</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>115.28</v>
+        <v>136.9</v>
       </c>
       <c r="D17" t="n">
-        <v>157.94</v>
+        <v>188.7</v>
       </c>
       <c r="E17" t="n">
-        <v>19.616</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>105.12</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>166.68</v>
+        <v>147.9</v>
       </c>
       <c r="E18" t="n">
-        <v>19.252</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>166.68</v>
+        <v>209.92</v>
       </c>
       <c r="D19" t="n">
-        <v>239.18</v>
+        <v>252.58</v>
       </c>
       <c r="E19" t="n">
-        <v>15.092</v>
+        <v>12.412</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>190.96</v>
+        <v>167.24</v>
       </c>
       <c r="D20" t="n">
-        <v>224.26</v>
+        <v>217.18</v>
       </c>
       <c r="E20" t="n">
-        <v>16.584</v>
+        <v>15.832</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>311.16</v>
+        <v>67.94</v>
       </c>
       <c r="D21" t="n">
-        <v>376.06</v>
+        <v>108.54</v>
       </c>
       <c r="E21" t="n">
-        <v>8.644</v>
+        <v>24.436</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>157.94</v>
+        <v>217.18</v>
       </c>
       <c r="D22" t="n">
-        <v>223.34</v>
+        <v>283.38</v>
       </c>
       <c r="E22" t="n">
-        <v>17.176</v>
+        <v>11.812</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>224.26</v>
+        <v>160.12</v>
       </c>
       <c r="D23" t="n">
-        <v>274.16</v>
+        <v>217.9</v>
       </c>
       <c r="E23" t="n">
-        <v>13.724</v>
+        <v>17.26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>274.16</v>
+        <v>217.9</v>
       </c>
       <c r="D24" t="n">
-        <v>337.96</v>
+        <v>263</v>
       </c>
       <c r="E24" t="n">
-        <v>9.944000000000001</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>239.18</v>
+        <v>283.38</v>
       </c>
       <c r="D25" t="n">
-        <v>316.6</v>
+        <v>342.76</v>
       </c>
       <c r="E25" t="n">
-        <v>11.92</v>
+        <v>9.004</v>
       </c>
     </row>
     <row r="26">
@@ -922,36 +922,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>137.98</v>
+        <v>147.9</v>
       </c>
       <c r="D26" t="n">
-        <v>193.94</v>
+        <v>205.92</v>
       </c>
       <c r="E26" t="n">
-        <v>20.496</v>
+        <v>17.288</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>316.6</v>
+        <v>252.58</v>
       </c>
       <c r="D27" t="n">
-        <v>391.04</v>
+        <v>315.9</v>
       </c>
       <c r="E27" t="n">
-        <v>8.055999999999999</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -964,113 +964,113 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>78.36</v>
+        <v>108.54</v>
       </c>
       <c r="D28" t="n">
-        <v>139.66</v>
+        <v>145.34</v>
       </c>
       <c r="E28" t="n">
-        <v>23.264</v>
+        <v>21.396</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>193.94</v>
+        <v>263</v>
       </c>
       <c r="D29" t="n">
-        <v>265.14</v>
+        <v>308.04</v>
       </c>
       <c r="E29" t="n">
-        <v>16.476</v>
+        <v>10.016</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>376.06</v>
+        <v>188.7</v>
       </c>
       <c r="D30" t="n">
-        <v>425.24</v>
+        <v>233.38</v>
       </c>
       <c r="E30" t="n">
-        <v>5.836</v>
+        <v>13.872</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>139.66</v>
+        <v>308.04</v>
       </c>
       <c r="D31" t="n">
-        <v>197.98</v>
+        <v>379.84</v>
       </c>
       <c r="E31" t="n">
-        <v>19.052</v>
+        <v>5.936</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>223.34</v>
+        <v>205.92</v>
       </c>
       <c r="D32" t="n">
-        <v>297.98</v>
+        <v>245.82</v>
       </c>
       <c r="E32" t="n">
-        <v>13.312</v>
+        <v>14.428</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>265.14</v>
+        <v>145.34</v>
       </c>
       <c r="D33" t="n">
-        <v>344.42</v>
+        <v>193.36</v>
       </c>
       <c r="E33" t="n">
-        <v>13.148</v>
+        <v>18.224</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1078,32 +1078,32 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>344.42</v>
+        <v>315.9</v>
       </c>
       <c r="D34" t="n">
-        <v>386.5</v>
+        <v>382.78</v>
       </c>
       <c r="E34" t="n">
-        <v>10.08</v>
+        <v>5.132</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>197.98</v>
+        <v>233.38</v>
       </c>
       <c r="D35" t="n">
-        <v>234.02</v>
+        <v>261.78</v>
       </c>
       <c r="E35" t="n">
-        <v>16.088</v>
+        <v>11.672</v>
       </c>
     </row>
     <row r="36">
@@ -1112,55 +1112,55 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>234.02</v>
+        <v>193.36</v>
       </c>
       <c r="D36" t="n">
-        <v>288.02</v>
+        <v>262.32</v>
       </c>
       <c r="E36" t="n">
-        <v>13.288</v>
+        <v>15.408</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>391.04</v>
+        <v>262.32</v>
       </c>
       <c r="D37" t="n">
-        <v>446.04</v>
+        <v>305.68</v>
       </c>
       <c r="E37" t="n">
-        <v>4.696</v>
+        <v>11.712</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>288.02</v>
+        <v>261.78</v>
       </c>
       <c r="D38" t="n">
-        <v>334.78</v>
+        <v>320.98</v>
       </c>
       <c r="E38" t="n">
-        <v>9.752000000000001</v>
+        <v>8.872</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>386.5</v>
+        <v>245.82</v>
       </c>
       <c r="D39" t="n">
-        <v>441.62</v>
+        <v>304.72</v>
       </c>
       <c r="E39" t="n">
-        <v>7.168</v>
+        <v>10.648</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>334.78</v>
+        <v>305.68</v>
       </c>
       <c r="D40" t="n">
-        <v>380.84</v>
+        <v>376.34</v>
       </c>
       <c r="E40" t="n">
-        <v>7.256</v>
+        <v>7.736</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>337.96</v>
+        <v>304.72</v>
       </c>
       <c r="D41" t="n">
-        <v>412.56</v>
+        <v>380.68</v>
       </c>
       <c r="E41" t="n">
-        <v>6.564</v>
+        <v>8.151999999999999</v>
       </c>
     </row>
   </sheetData>
